--- a/ocms/src/test/resources/DownloadedFiles/Recipient (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Recipient (2).xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
-    <t xml:space="preserve">Fax Addres</t>
+    <t xml:space="preserve">Fax </t>
   </si>
   <si>
     <t xml:space="preserve">Recipient</t>
@@ -244,7 +244,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2">
-        <v>43630.654861111114</v>
+        <v>43630.69965277778</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">

--- a/ocms/src/test/resources/DownloadedFiles/Recipient (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Recipient (2).xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">9987288</t>
   </si>
   <si>
-    <t xml:space="preserve">26/04/2020 01:39:15</t>
+    <t xml:space="preserve">27/04/2020 13:04:16</t>
   </si>
   <si>
     <t xml:space="preserve">sample2</t>
